--- a/city-metro-visualization/data/深圳/metro_exchange_lines.xlsx
+++ b/city-metro-visualization/data/深圳/metro_exchange_lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="285">
   <si>
     <t>station_name</t>
   </si>
@@ -34,6 +34,12 @@
     <t>上塘</t>
   </si>
   <si>
+    <t>上屋</t>
+  </si>
+  <si>
+    <t>上李朗</t>
+  </si>
+  <si>
     <t>上梅林</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>上沙</t>
   </si>
   <si>
+    <t>上芬</t>
+  </si>
+  <si>
     <t>下梅林</t>
   </si>
   <si>
@@ -70,9 +79,15 @@
     <t>人民南</t>
   </si>
   <si>
+    <t>仙湖路</t>
+  </si>
+  <si>
     <t>会展中心</t>
   </si>
   <si>
+    <t>体育中心</t>
+  </si>
+  <si>
     <t>侨城东</t>
   </si>
   <si>
@@ -82,9 +97,24 @@
     <t>侨香</t>
   </si>
   <si>
+    <t>元芬</t>
+  </si>
+  <si>
+    <t>光明</t>
+  </si>
+  <si>
+    <t>光明大街</t>
+  </si>
+  <si>
+    <t>光雅园</t>
+  </si>
+  <si>
     <t>八卦岭</t>
   </si>
   <si>
+    <t>公明广场</t>
+  </si>
+  <si>
     <t>六约</t>
   </si>
   <si>
@@ -94,6 +124,15 @@
     <t>农林</t>
   </si>
   <si>
+    <t>冬瓜岭</t>
+  </si>
+  <si>
+    <t>凉帽山</t>
+  </si>
+  <si>
+    <t>凤凰城</t>
+  </si>
+  <si>
     <t>前海湾</t>
   </si>
   <si>
@@ -103,9 +142,15 @@
     <t>前湾公园</t>
   </si>
   <si>
+    <t>华为</t>
+  </si>
+  <si>
     <t>华侨城</t>
   </si>
   <si>
+    <t>华南城</t>
+  </si>
+  <si>
     <t>华强北</t>
   </si>
   <si>
@@ -118,6 +163,9 @@
     <t>华新</t>
   </si>
   <si>
+    <t>南坑</t>
+  </si>
+  <si>
     <t>南山</t>
   </si>
   <si>
@@ -133,9 +181,15 @@
     <t>南联</t>
   </si>
   <si>
+    <t>双拥街</t>
+  </si>
+  <si>
     <t>双龙</t>
   </si>
   <si>
+    <t>合水口</t>
+  </si>
+  <si>
     <t>吉祥</t>
   </si>
   <si>
@@ -163,6 +217,9 @@
     <t>坂田</t>
   </si>
   <si>
+    <t>坂田北</t>
+  </si>
+  <si>
     <t>坪洲</t>
   </si>
   <si>
@@ -202,6 +259,9 @@
     <t>安托山</t>
   </si>
   <si>
+    <t>官田</t>
+  </si>
+  <si>
     <t>宝体</t>
   </si>
   <si>
@@ -223,6 +283,9 @@
     <t>岗厦北</t>
   </si>
   <si>
+    <t>岗头</t>
+  </si>
+  <si>
     <t>市民中心</t>
   </si>
   <si>
@@ -232,6 +295,9 @@
     <t>布心</t>
   </si>
   <si>
+    <t>平湖</t>
+  </si>
+  <si>
     <t>怡景</t>
   </si>
   <si>
@@ -253,6 +319,9 @@
     <t>景田</t>
   </si>
   <si>
+    <t>木古</t>
+  </si>
+  <si>
     <t>木棉湾</t>
   </si>
   <si>
@@ -268,9 +337,15 @@
     <t>杨美</t>
   </si>
   <si>
+    <t>松元厦</t>
+  </si>
+  <si>
     <t>松岗</t>
   </si>
   <si>
+    <t>松岗公园</t>
+  </si>
+  <si>
     <t>桂湾</t>
   </si>
   <si>
@@ -289,9 +364,18 @@
     <t>梅村</t>
   </si>
   <si>
+    <t>梅林关</t>
+  </si>
+  <si>
     <t>梦海</t>
   </si>
   <si>
+    <t>梧桐山南</t>
+  </si>
+  <si>
+    <t>楼村</t>
+  </si>
+  <si>
     <t>横岗</t>
   </si>
   <si>
@@ -313,6 +397,9 @@
     <t>沙井</t>
   </si>
   <si>
+    <t>沙头角</t>
+  </si>
+  <si>
     <t>沙尾</t>
   </si>
   <si>
@@ -328,6 +415,9 @@
     <t>海上世界</t>
   </si>
   <si>
+    <t>海山</t>
+  </si>
+  <si>
     <t>海月</t>
   </si>
   <si>
@@ -340,6 +430,9 @@
     <t>深圳湾公园</t>
   </si>
   <si>
+    <t>深外高中</t>
+  </si>
+  <si>
     <t>深大</t>
   </si>
   <si>
@@ -355,12 +448,18 @@
     <t>清湖</t>
   </si>
   <si>
+    <t>清湖北</t>
+  </si>
+  <si>
     <t>湖贝</t>
   </si>
   <si>
     <t>湾厦</t>
   </si>
   <si>
+    <t>溪头</t>
+  </si>
+  <si>
     <t>灵芝</t>
   </si>
   <si>
@@ -370,9 +469,15 @@
     <t>爱联</t>
   </si>
   <si>
+    <t>牛湖</t>
+  </si>
+  <si>
     <t>珠光</t>
   </si>
   <si>
+    <t>甘坑</t>
+  </si>
+  <si>
     <t>田贝</t>
   </si>
   <si>
@@ -400,6 +505,12 @@
     <t>益田</t>
   </si>
   <si>
+    <t>盐田港西</t>
+  </si>
+  <si>
+    <t>盐田路</t>
+  </si>
+  <si>
     <t>石厦</t>
   </si>
   <si>
@@ -409,6 +520,9 @@
     <t>碧海湾</t>
   </si>
   <si>
+    <t>福保</t>
+  </si>
+  <si>
     <t>福民</t>
   </si>
   <si>
@@ -421,6 +535,12 @@
     <t>福田口岸</t>
   </si>
   <si>
+    <t>禾花</t>
+  </si>
+  <si>
+    <t>科学公园</t>
+  </si>
+  <si>
     <t>科学馆</t>
   </si>
   <si>
@@ -430,6 +550,9 @@
     <t>竹子林</t>
   </si>
   <si>
+    <t>竹村</t>
+  </si>
+  <si>
     <t>笋岗</t>
   </si>
   <si>
@@ -454,18 +577,27 @@
     <t>红树湾南</t>
   </si>
   <si>
+    <t>红花山</t>
+  </si>
+  <si>
     <t>罗湖</t>
   </si>
   <si>
     <t>翠竹</t>
   </si>
   <si>
+    <t>翰岭</t>
+  </si>
+  <si>
     <t>翻身</t>
   </si>
   <si>
     <t>老街</t>
   </si>
   <si>
+    <t>茜坑</t>
+  </si>
+  <si>
     <t>茶光</t>
   </si>
   <si>
@@ -481,6 +613,12 @@
     <t>荷坳</t>
   </si>
   <si>
+    <t>莲塘</t>
+  </si>
+  <si>
+    <t>莲塘口岸</t>
+  </si>
+  <si>
     <t>莲花北</t>
   </si>
   <si>
@@ -490,6 +628,9 @@
     <t>莲花西</t>
   </si>
   <si>
+    <t>薯田埔</t>
+  </si>
+  <si>
     <t>蛇口港</t>
   </si>
   <si>
@@ -502,6 +643,15 @@
     <t>西乡</t>
   </si>
   <si>
+    <t>观澜</t>
+  </si>
+  <si>
+    <t>观澜湖</t>
+  </si>
+  <si>
+    <t>贝尔路</t>
+  </si>
+  <si>
     <t>购物公园</t>
   </si>
   <si>
@@ -523,12 +673,27 @@
     <t>银湖</t>
   </si>
   <si>
+    <t>长圳</t>
+  </si>
+  <si>
     <t>长岭陂</t>
   </si>
   <si>
+    <t>长湖</t>
+  </si>
+  <si>
     <t>长龙</t>
   </si>
   <si>
+    <t>阳台山东</t>
+  </si>
+  <si>
+    <t>雅宝</t>
+  </si>
+  <si>
+    <t>雪象</t>
+  </si>
+  <si>
     <t>香梅</t>
   </si>
   <si>
@@ -577,6 +742,12 @@
     <t>4号线/龙华线</t>
   </si>
   <si>
+    <t>6号线</t>
+  </si>
+  <si>
+    <t>10号线</t>
+  </si>
+  <si>
     <t>4号线/龙华线,9号线/梅林线</t>
   </si>
   <si>
@@ -589,28 +760,34 @@
     <t>9号线/梅林线</t>
   </si>
   <si>
-    <t>1号线/罗宝线,2号线/蛇口线</t>
-  </si>
-  <si>
-    <t>2号线/蛇口线</t>
+    <t>1号线/罗宝线,2号线(8号线)</t>
+  </si>
+  <si>
+    <t>2号线(8号线)</t>
   </si>
   <si>
     <t>3号线/龙岗线</t>
   </si>
   <si>
+    <t>10号线,5号线/环中线</t>
+  </si>
+  <si>
     <t>1号线/罗宝线,4号线/龙华线</t>
   </si>
   <si>
     <t>1号线/罗宝线</t>
   </si>
   <si>
+    <t>6号线,7号线/西丽线</t>
+  </si>
+  <si>
     <t>11号线/机场线,1号线/罗宝线,5号线/环中线</t>
   </si>
   <si>
     <t>5号线/环中线,9号线/梅林线</t>
   </si>
   <si>
-    <t>2号线/蛇口线,7号线/西丽线</t>
+    <t>2号线(8号线),7号线/西丽线</t>
   </si>
   <si>
     <t>3号线/龙岗线,7号线/西丽线</t>
@@ -619,34 +796,52 @@
     <t>11号线/机场线</t>
   </si>
   <si>
-    <t>11号线/机场线,2号线/蛇口线</t>
+    <t>11号线/机场线,2号线(8号线)</t>
   </si>
   <si>
     <t>5号线/环中线,7号线/西丽线</t>
   </si>
   <si>
+    <t>10号线,9号线/梅林线</t>
+  </si>
+  <si>
     <t>1号线/罗宝线,5号线/环中线</t>
   </si>
   <si>
     <t>3号线/龙岗线,4号线/龙华线</t>
   </si>
   <si>
-    <t>2号线/蛇口线,4号线/龙华线</t>
+    <t>10号线,1号线/罗宝线</t>
+  </si>
+  <si>
+    <t>2号线(8号线),4号线/龙华线</t>
   </si>
   <si>
     <t>3号线/龙岗线,5号线/环中线</t>
   </si>
   <si>
-    <t>2号线/蛇口线,9号线/梅林线</t>
-  </si>
-  <si>
-    <t>4号线/龙华线,5号线/环中线</t>
-  </si>
-  <si>
-    <t>4号线/龙华线,7号线/西丽线</t>
-  </si>
-  <si>
-    <t>11号线/机场线,2号线/蛇口线,3号线/龙岗线</t>
+    <t>2号线(8号线),9号线/梅林线</t>
+  </si>
+  <si>
+    <t>11号线/机场线,6号线</t>
+  </si>
+  <si>
+    <t>4号线/龙华线,5号线/环中线,6号线</t>
+  </si>
+  <si>
+    <t>10号线,4号线/龙华线,7号线/西丽线</t>
+  </si>
+  <si>
+    <t>11号线/机场线,2号线(8号线),3号线/龙岗线</t>
+  </si>
+  <si>
+    <t>10号线,4号线/龙华线</t>
+  </si>
+  <si>
+    <t>1号线/罗宝线,6号线</t>
+  </si>
+  <si>
+    <t>4号线/龙华线,6号线</t>
   </si>
   <si>
     <t>3号线/龙岗线,9号线/梅林线</t>
@@ -661,10 +856,19 @@
     <t>1号线/罗宝线,3号线/龙岗线</t>
   </si>
   <si>
-    <t>2号线/蛇口线,5号线/环中线</t>
+    <t>10号线,3号线/龙岗线</t>
+  </si>
+  <si>
+    <t>2号线(8号线),5号线/环中线</t>
   </si>
   <si>
     <t>11号线/机场线,1号线/罗宝线,7号线/西丽线,9号线/梅林线</t>
+  </si>
+  <si>
+    <t>3号线/龙岗线,6号线</t>
+  </si>
+  <si>
+    <t>6号线,9号线/梅林线</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="D2">
         <v>114.012808</v>
@@ -1067,16 +1271,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="D3">
-        <v>114.05944</v>
+        <v>113.938536</v>
       </c>
       <c r="E3">
-        <v>22.570462</v>
+        <v>22.689097</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1087,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="D4">
-        <v>114.105337</v>
+        <v>114.127071</v>
       </c>
       <c r="E4">
-        <v>22.622046</v>
+        <v>22.654048</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1101,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="D5">
-        <v>114.035504</v>
+        <v>114.05944</v>
       </c>
       <c r="E5">
-        <v>22.524612</v>
+        <v>22.570462</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1121,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="D6">
-        <v>114.041768</v>
+        <v>114.105337</v>
       </c>
       <c r="E6">
-        <v>22.565672</v>
+        <v>22.622046</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1138,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D7">
-        <v>114.110662</v>
+        <v>114.035504</v>
       </c>
       <c r="E7">
-        <v>22.614833</v>
+        <v>22.524612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1155,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D8">
-        <v>114.024334</v>
+        <v>114.016637</v>
       </c>
       <c r="E8">
-        <v>22.5289</v>
+        <v>22.640394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1169,16 +1373,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D9">
-        <v>113.974216</v>
+        <v>114.041768</v>
       </c>
       <c r="E9">
-        <v>22.5369</v>
+        <v>22.565672</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1189,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="D10">
-        <v>113.931149</v>
+        <v>114.110662</v>
       </c>
       <c r="E10">
-        <v>22.486325</v>
+        <v>22.614833</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1206,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="D11">
-        <v>113.889323</v>
+        <v>114.024334</v>
       </c>
       <c r="E11">
-        <v>22.54416</v>
+        <v>22.5289</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1220,16 +1424,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="D12">
-        <v>114.148054</v>
+        <v>113.974216</v>
       </c>
       <c r="E12">
-        <v>22.619752</v>
+        <v>22.5369</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1240,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="D13">
-        <v>114.060681</v>
+        <v>113.931149</v>
       </c>
       <c r="E13">
-        <v>22.626833</v>
+        <v>22.486325</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1257,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="D14">
-        <v>114.118154</v>
+        <v>113.889323</v>
       </c>
       <c r="E14">
-        <v>22.535514</v>
+        <v>22.54416</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1271,16 +1475,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="D15">
-        <v>114.061101</v>
+        <v>114.148054</v>
       </c>
       <c r="E15">
-        <v>22.534769</v>
+        <v>22.619752</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1288,16 +1492,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="D16">
-        <v>113.996651</v>
+        <v>114.060681</v>
       </c>
       <c r="E16">
-        <v>22.532406</v>
+        <v>22.626833</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1308,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="D17">
-        <v>113.989148</v>
+        <v>114.118154</v>
       </c>
       <c r="E17">
-        <v>22.543992</v>
+        <v>22.535514</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1325,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="D18">
-        <v>114.014378</v>
+        <v>114.166405</v>
       </c>
       <c r="E18">
-        <v>22.549784</v>
+        <v>22.564065</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1339,16 +1543,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="D19">
-        <v>114.095079</v>
+        <v>114.061101</v>
       </c>
       <c r="E19">
-        <v>22.56194</v>
+        <v>22.534769</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1359,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D20">
-        <v>114.180646</v>
+        <v>114.096104</v>
       </c>
       <c r="E20">
-        <v>22.634322</v>
+        <v>22.554673</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1376,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="D21">
-        <v>113.919013</v>
+        <v>113.996651</v>
       </c>
       <c r="E21">
-        <v>22.581822</v>
+        <v>22.532406</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1393,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D22">
-        <v>114.018135</v>
+        <v>113.989148</v>
       </c>
       <c r="E22">
-        <v>22.540411</v>
+        <v>22.543992</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1407,16 +1611,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="D23">
-        <v>113.897932</v>
+        <v>114.014378</v>
       </c>
       <c r="E23">
-        <v>22.537121</v>
+        <v>22.549784</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1424,16 +1628,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D24">
-        <v>113.895809</v>
+        <v>114.005138</v>
       </c>
       <c r="E24">
-        <v>22.522332</v>
+        <v>22.656327</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1444,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="D25">
-        <v>113.889552</v>
+        <v>113.945166</v>
       </c>
       <c r="E25">
-        <v>22.516108</v>
+        <v>22.772506</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1461,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D26">
-        <v>113.985369</v>
+        <v>113.942714</v>
       </c>
       <c r="E26">
-        <v>22.533489</v>
+        <v>22.761965</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1475,16 +1679,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D27">
-        <v>114.085413</v>
+        <v>114.060892</v>
       </c>
       <c r="E27">
-        <v>22.544441</v>
+        <v>22.616397</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1492,16 +1696,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="D28">
-        <v>114.086825</v>
+        <v>114.094649</v>
       </c>
       <c r="E28">
-        <v>22.537214</v>
+        <v>22.561941</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1512,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D29">
-        <v>114.085133</v>
+        <v>113.891407</v>
       </c>
       <c r="E29">
-        <v>22.540459</v>
+        <v>22.777428</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1526,16 +1730,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="D30">
-        <v>114.086654</v>
+        <v>114.180646</v>
       </c>
       <c r="E30">
-        <v>22.548981</v>
+        <v>22.634322</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1546,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D31">
-        <v>113.923596</v>
+        <v>113.919013</v>
       </c>
       <c r="E31">
-        <v>22.524022</v>
+        <v>22.581822</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1563,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D32">
-        <v>113.928657</v>
+        <v>114.018135</v>
       </c>
       <c r="E32">
-        <v>22.519355</v>
+        <v>22.540411</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1580,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="D33">
-        <v>113.925664</v>
+        <v>114.067592</v>
       </c>
       <c r="E33">
-        <v>22.509981</v>
+        <v>22.560437</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1597,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="D34">
-        <v>113.918402</v>
+        <v>114.118964</v>
       </c>
       <c r="E34">
-        <v>22.509074</v>
+        <v>22.646323</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1614,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D35">
-        <v>114.265531</v>
+        <v>113.932831</v>
       </c>
       <c r="E35">
-        <v>22.721967</v>
+        <v>22.747433</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1628,16 +1832,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="D36">
-        <v>114.277422</v>
+        <v>113.897932</v>
       </c>
       <c r="E36">
-        <v>22.728806</v>
+        <v>22.537121</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1645,16 +1849,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D37">
-        <v>114.244318</v>
+        <v>113.895809</v>
       </c>
       <c r="E37">
-        <v>22.709488</v>
+        <v>22.522332</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1665,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D38">
-        <v>113.826874</v>
+        <v>113.889552</v>
       </c>
       <c r="E38">
-        <v>22.752625</v>
+        <v>22.516108</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1679,16 +1883,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D39">
-        <v>113.942498</v>
+        <v>114.067171</v>
       </c>
       <c r="E39">
-        <v>22.518422</v>
+        <v>22.650445</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1699,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D40">
-        <v>113.835449</v>
+        <v>113.985369</v>
       </c>
       <c r="E40">
-        <v>22.628835</v>
+        <v>22.533489</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1716,13 +1920,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="D41">
-        <v>114.125767</v>
+        <v>114.12225</v>
       </c>
       <c r="E41">
-        <v>22.539792</v>
+        <v>22.675974</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1730,16 +1934,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="D42">
-        <v>114.104497</v>
+        <v>114.085413</v>
       </c>
       <c r="E42">
-        <v>22.556288</v>
+        <v>22.544441</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1750,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D43">
-        <v>113.846792</v>
+        <v>114.086825</v>
       </c>
       <c r="E43">
-        <v>22.601363</v>
+        <v>22.537214</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1767,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D44">
-        <v>114.118909</v>
+        <v>114.085133</v>
       </c>
       <c r="E44">
-        <v>22.53968</v>
+        <v>22.540459</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1781,16 +1985,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="D45">
-        <v>114.070852</v>
+        <v>114.086654</v>
       </c>
       <c r="E45">
-        <v>22.627483</v>
+        <v>22.548981</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1801,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D46">
-        <v>113.870711</v>
+        <v>114.060546</v>
       </c>
       <c r="E46">
-        <v>22.568908</v>
+        <v>22.610894</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1818,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D47">
-        <v>114.192725</v>
+        <v>113.923596</v>
       </c>
       <c r="E47">
-        <v>22.639179</v>
+        <v>22.524022</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1835,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D48">
-        <v>113.817878</v>
+        <v>113.928657</v>
       </c>
       <c r="E48">
-        <v>22.702075</v>
+        <v>22.519355</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1852,13 +2056,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="D49">
-        <v>113.999666</v>
+        <v>113.925664</v>
       </c>
       <c r="E49">
-        <v>22.590097</v>
+        <v>22.509981</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1866,16 +2070,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D50">
-        <v>114.107811</v>
+        <v>113.918402</v>
       </c>
       <c r="E50">
-        <v>22.5418</v>
+        <v>22.509074</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1886,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D51">
-        <v>113.965307</v>
+        <v>114.265531</v>
       </c>
       <c r="E51">
-        <v>22.581946</v>
+        <v>22.721967</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1903,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D52">
-        <v>113.915072</v>
+        <v>114.132978</v>
       </c>
       <c r="E52">
-        <v>22.532232</v>
+        <v>22.698648</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1920,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="D53">
-        <v>114.138364</v>
+        <v>114.277422</v>
       </c>
       <c r="E53">
-        <v>22.614191</v>
+        <v>22.728806</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1937,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D54">
-        <v>114.228163</v>
+        <v>113.880928</v>
       </c>
       <c r="E54">
-        <v>22.68572</v>
+        <v>22.78161</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1951,16 +2155,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D55">
-        <v>114.137119</v>
+        <v>114.244318</v>
       </c>
       <c r="E55">
-        <v>22.573466</v>
+        <v>22.709488</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1971,13 +2175,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="D56">
-        <v>113.885929</v>
+        <v>113.826874</v>
       </c>
       <c r="E56">
-        <v>22.507904</v>
+        <v>22.752625</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1985,16 +2189,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="D57">
-        <v>114.067778</v>
+        <v>113.942498</v>
       </c>
       <c r="E57">
-        <v>22.568458</v>
+        <v>22.518422</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2002,16 +2206,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="D58">
-        <v>114.006236</v>
+        <v>113.835449</v>
       </c>
       <c r="E58">
-        <v>22.548785</v>
+        <v>22.628835</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2022,13 +2226,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D59">
-        <v>113.880641</v>
+        <v>114.125767</v>
       </c>
       <c r="E59">
-        <v>22.560741</v>
+        <v>22.539792</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2039,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="D60">
-        <v>113.88509</v>
+        <v>114.104497</v>
       </c>
       <c r="E60">
-        <v>22.549635</v>
+        <v>22.556288</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2056,13 +2260,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D61">
-        <v>113.880396</v>
+        <v>113.846792</v>
       </c>
       <c r="E61">
-        <v>22.55459</v>
+        <v>22.601363</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2070,16 +2274,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D62">
-        <v>113.887233</v>
+        <v>114.118909</v>
       </c>
       <c r="E62">
-        <v>22.554575</v>
+        <v>22.53968</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2087,16 +2291,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D63">
-        <v>114.06017</v>
+        <v>114.070852</v>
       </c>
       <c r="E63">
-        <v>22.548627</v>
+        <v>22.627483</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2107,13 +2311,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D64">
-        <v>114.06819</v>
+        <v>114.063369</v>
       </c>
       <c r="E64">
-        <v>22.534854</v>
+        <v>22.634919</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2124,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="D65">
-        <v>114.06924</v>
+        <v>113.870711</v>
       </c>
       <c r="E65">
-        <v>22.540937</v>
+        <v>22.568908</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2138,16 +2342,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D66">
-        <v>114.061192</v>
+        <v>114.192725</v>
       </c>
       <c r="E66">
-        <v>22.541744</v>
+        <v>22.639179</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2155,16 +2359,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="D67">
-        <v>114.121571</v>
+        <v>113.817878</v>
       </c>
       <c r="E67">
-        <v>22.601765</v>
+        <v>22.702075</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2175,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="D68">
-        <v>114.138045</v>
+        <v>113.999666</v>
       </c>
       <c r="E68">
-        <v>22.580986</v>
+        <v>22.590097</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2189,16 +2393,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="D69">
-        <v>114.140115</v>
+        <v>114.107811</v>
       </c>
       <c r="E69">
-        <v>22.555856</v>
+        <v>22.5418</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2209,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="D70">
-        <v>113.903758</v>
+        <v>113.965307</v>
       </c>
       <c r="E70">
-        <v>22.514933</v>
+        <v>22.581946</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2226,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="D71">
-        <v>114.130962</v>
+        <v>113.915072</v>
       </c>
       <c r="E71">
-        <v>22.542259</v>
+        <v>22.532232</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2243,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="D72">
-        <v>113.894625</v>
+        <v>114.138364</v>
       </c>
       <c r="E72">
-        <v>22.547468</v>
+        <v>22.614191</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2260,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="D73">
-        <v>114.148765</v>
+        <v>114.228163</v>
       </c>
       <c r="E73">
-        <v>22.547688</v>
+        <v>22.68572</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2274,16 +2478,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D74">
-        <v>114.122664</v>
+        <v>114.137119</v>
       </c>
       <c r="E74">
-        <v>22.549238</v>
+        <v>22.573466</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2291,16 +2495,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="D75">
-        <v>114.043343</v>
+        <v>113.885929</v>
       </c>
       <c r="E75">
-        <v>22.553419</v>
+        <v>22.507904</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2308,16 +2512,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="D76">
-        <v>114.130293</v>
+        <v>114.067778</v>
       </c>
       <c r="E76">
-        <v>22.606997</v>
+        <v>22.568458</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2325,16 +2529,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="D77">
-        <v>113.813663</v>
+        <v>114.006236</v>
       </c>
       <c r="E77">
-        <v>22.624026</v>
+        <v>22.548785</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2345,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D78">
-        <v>113.822634</v>
+        <v>113.949663</v>
       </c>
       <c r="E78">
-        <v>22.647001</v>
+        <v>22.683253</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2362,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="D79">
-        <v>113.798179</v>
+        <v>113.880641</v>
       </c>
       <c r="E79">
-        <v>22.651128</v>
+        <v>22.560741</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2379,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="D80">
-        <v>114.079975</v>
+        <v>113.88509</v>
       </c>
       <c r="E80">
-        <v>22.626777</v>
+        <v>22.549635</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2396,13 +2600,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="D81">
-        <v>113.829609</v>
+        <v>113.880396</v>
       </c>
       <c r="E81">
-        <v>22.772332</v>
+        <v>22.55459</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2410,16 +2614,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="D82">
-        <v>113.897944</v>
+        <v>113.887233</v>
       </c>
       <c r="E82">
-        <v>22.532358</v>
+        <v>22.554575</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2427,16 +2631,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="D83">
-        <v>113.924857</v>
+        <v>114.06017</v>
       </c>
       <c r="E83">
-        <v>22.532357</v>
+        <v>22.548627</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2444,16 +2648,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="D84">
-        <v>113.981962</v>
+        <v>114.06819</v>
       </c>
       <c r="E84">
-        <v>22.5599</v>
+        <v>22.534854</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2464,13 +2668,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D85">
-        <v>113.811001</v>
+        <v>114.068982</v>
       </c>
       <c r="E85">
-        <v>22.688133</v>
+        <v>22.540858</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2481,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="D86">
-        <v>114.037934</v>
+        <v>114.071895</v>
       </c>
       <c r="E86">
-        <v>22.561028</v>
+        <v>22.657067</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2495,16 +2699,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D87">
-        <v>114.052423</v>
+        <v>114.061192</v>
       </c>
       <c r="E87">
-        <v>22.568443</v>
+        <v>22.541744</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2512,16 +2716,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="D88">
-        <v>113.898806</v>
+        <v>114.121571</v>
       </c>
       <c r="E88">
-        <v>22.518925</v>
+        <v>22.601765</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2532,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D89">
-        <v>114.208994</v>
+        <v>114.138045</v>
       </c>
       <c r="E89">
-        <v>22.648442</v>
+        <v>22.580986</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2549,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D90">
-        <v>114.048809</v>
+        <v>114.125805</v>
       </c>
       <c r="E90">
-        <v>22.594144</v>
+        <v>22.69367</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2566,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="D91">
-        <v>114.04085</v>
+        <v>114.140115</v>
       </c>
       <c r="E91">
-        <v>22.617545</v>
+        <v>22.555856</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2583,13 +2787,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="D92">
-        <v>113.919686</v>
+        <v>113.903758</v>
       </c>
       <c r="E92">
-        <v>22.488389</v>
+        <v>22.514933</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2600,13 +2804,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D93">
-        <v>114.124974</v>
+        <v>114.130962</v>
       </c>
       <c r="E93">
-        <v>22.573988</v>
+        <v>22.542259</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2617,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="D94">
-        <v>114.218042</v>
+        <v>113.894625</v>
       </c>
       <c r="E94">
-        <v>22.658995</v>
+        <v>22.547468</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2634,13 +2838,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D95">
-        <v>113.824434</v>
+        <v>114.148765</v>
       </c>
       <c r="E95">
-        <v>22.730849</v>
+        <v>22.547688</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2651,13 +2855,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="D96">
-        <v>114.042579</v>
+        <v>114.122664</v>
       </c>
       <c r="E96">
-        <v>22.520798</v>
+        <v>22.549238</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2665,16 +2869,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="D97">
-        <v>114.097634</v>
+        <v>114.043343</v>
       </c>
       <c r="E97">
-        <v>22.567804</v>
+        <v>22.553419</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2685,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="D98">
-        <v>113.910585</v>
+        <v>114.122502</v>
       </c>
       <c r="E98">
-        <v>22.574543</v>
+        <v>22.669328</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2702,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="D99">
-        <v>114.122465</v>
+        <v>114.130293</v>
       </c>
       <c r="E99">
-        <v>22.566056</v>
+        <v>22.606997</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2719,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="D100">
-        <v>113.915111</v>
+        <v>113.813663</v>
       </c>
       <c r="E100">
-        <v>22.485101</v>
+        <v>22.624026</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2736,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="D101">
-        <v>113.937715</v>
+        <v>113.822634</v>
       </c>
       <c r="E101">
-        <v>22.500409</v>
+        <v>22.647001</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2753,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D102">
-        <v>113.993727</v>
+        <v>113.798179</v>
       </c>
       <c r="E102">
-        <v>22.556537</v>
+        <v>22.651128</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2767,16 +2971,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="D103">
-        <v>114.030298</v>
+        <v>114.079975</v>
       </c>
       <c r="E103">
-        <v>22.610496</v>
+        <v>22.626777</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2787,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D104">
-        <v>113.993114</v>
+        <v>114.064878</v>
       </c>
       <c r="E104">
-        <v>22.521591</v>
+        <v>22.720557</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2801,16 +3005,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="D105">
-        <v>113.944173</v>
+        <v>113.829631</v>
       </c>
       <c r="E105">
-        <v>22.538667</v>
+        <v>22.772271</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2821,13 +3025,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D106">
-        <v>113.935675</v>
+        <v>113.84831</v>
       </c>
       <c r="E106">
-        <v>22.526016</v>
+        <v>22.77792</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2838,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="D107">
-        <v>113.998846</v>
+        <v>113.897944</v>
       </c>
       <c r="E107">
-        <v>22.546456</v>
+        <v>22.532358</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2855,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="D108">
-        <v>113.97862</v>
+        <v>113.924857</v>
       </c>
       <c r="E108">
-        <v>22.523078</v>
+        <v>22.532357</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2872,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D109">
-        <v>114.036538</v>
+        <v>113.981962</v>
       </c>
       <c r="E109">
-        <v>22.664085</v>
+        <v>22.5599</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2889,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="D110">
-        <v>114.125437</v>
+        <v>113.811001</v>
       </c>
       <c r="E110">
-        <v>22.544287</v>
+        <v>22.688133</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2906,13 +3110,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="D111">
-        <v>113.938604</v>
+        <v>114.037934</v>
       </c>
       <c r="E111">
-        <v>22.493353</v>
+        <v>22.561028</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2923,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="D112">
-        <v>113.904158</v>
+        <v>114.052423</v>
       </c>
       <c r="E112">
-        <v>22.568964</v>
+        <v>22.568443</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2940,13 +3144,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="D113">
-        <v>114.092561</v>
+        <v>114.05319</v>
       </c>
       <c r="E113">
-        <v>22.544541</v>
+        <v>22.594524</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2957,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D114">
-        <v>114.234423</v>
+        <v>113.898806</v>
       </c>
       <c r="E114">
-        <v>22.697495</v>
+        <v>22.518925</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2974,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D115">
-        <v>113.960559</v>
+        <v>114.183207</v>
       </c>
       <c r="E115">
-        <v>22.56827</v>
+        <v>22.55785</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2988,16 +3192,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D116">
-        <v>114.130052</v>
+        <v>113.923407</v>
       </c>
       <c r="E116">
-        <v>22.56728</v>
+        <v>22.77591</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3008,13 +3212,13 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D117">
-        <v>113.943543</v>
+        <v>114.208994</v>
       </c>
       <c r="E117">
-        <v>22.580534</v>
+        <v>22.648442</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3025,13 +3229,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D118">
-        <v>113.937602</v>
+        <v>114.048809</v>
       </c>
       <c r="E118">
-        <v>22.509146</v>
+        <v>22.594144</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3042,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="D119">
-        <v>113.967048</v>
+        <v>114.04085</v>
       </c>
       <c r="E119">
-        <v>22.539604</v>
+        <v>22.617545</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3059,13 +3263,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="D120">
-        <v>114.042431</v>
+        <v>113.919686</v>
       </c>
       <c r="E120">
-        <v>22.601505</v>
+        <v>22.488389</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3076,13 +3280,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D121">
-        <v>114.13038</v>
+        <v>114.124974</v>
       </c>
       <c r="E121">
-        <v>22.595442</v>
+        <v>22.573988</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3093,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="D122">
-        <v>114.073972</v>
+        <v>114.218042</v>
       </c>
       <c r="E122">
-        <v>22.521799</v>
+        <v>22.658995</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3110,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D123">
-        <v>114.059823</v>
+        <v>113.824434</v>
       </c>
       <c r="E123">
-        <v>22.523138</v>
+        <v>22.730849</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3127,13 +3331,13 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D124">
-        <v>114.050987</v>
+        <v>114.223195</v>
       </c>
       <c r="E124">
-        <v>22.516287</v>
+        <v>22.554232</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3141,16 +3345,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="D125">
-        <v>114.053616</v>
+        <v>114.042579</v>
       </c>
       <c r="E125">
-        <v>22.523708</v>
+        <v>22.520798</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3161,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D126">
-        <v>113.819959</v>
+        <v>114.097634</v>
       </c>
       <c r="E126">
-        <v>22.784486</v>
+        <v>22.567804</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3178,13 +3382,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D127">
-        <v>113.856093</v>
+        <v>113.910585</v>
       </c>
       <c r="E127">
-        <v>22.575073</v>
+        <v>22.574543</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3192,16 +3396,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D128">
-        <v>114.065915</v>
+        <v>114.122465</v>
       </c>
       <c r="E128">
-        <v>22.523226</v>
+        <v>22.566056</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3212,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D129">
-        <v>113.806076</v>
+        <v>113.915111</v>
       </c>
       <c r="E129">
-        <v>22.673562</v>
+        <v>22.485101</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3226,16 +3430,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="D130">
-        <v>114.052879</v>
+        <v>114.237711</v>
       </c>
       <c r="E130">
-        <v>22.540087</v>
+        <v>22.555537</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3246,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="D131">
-        <v>114.069273</v>
+        <v>113.937715</v>
       </c>
       <c r="E131">
-        <v>22.515737</v>
+        <v>22.500409</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3263,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D132">
-        <v>114.094946</v>
+        <v>113.993727</v>
       </c>
       <c r="E132">
-        <v>22.540618</v>
+        <v>22.556537</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3277,16 +3481,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="D133">
-        <v>113.946195</v>
+        <v>114.030298</v>
       </c>
       <c r="E133">
-        <v>22.527019</v>
+        <v>22.610496</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3297,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D134">
-        <v>114.013917</v>
+        <v>113.993114</v>
       </c>
       <c r="E134">
-        <v>22.533357</v>
+        <v>22.521591</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3314,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D135">
-        <v>114.111295</v>
+        <v>114.244559</v>
       </c>
       <c r="E135">
-        <v>22.563406</v>
+        <v>22.584031</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3331,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="D136">
-        <v>113.945531</v>
+        <v>113.944173</v>
       </c>
       <c r="E136">
-        <v>22.532695</v>
+        <v>22.538667</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3348,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D137">
-        <v>114.023465</v>
+        <v>113.935675</v>
       </c>
       <c r="E137">
-        <v>22.621886</v>
+        <v>22.526016</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3362,16 +3566,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="D138">
-        <v>114.104584</v>
+        <v>113.998846</v>
       </c>
       <c r="E138">
-        <v>22.54838</v>
+        <v>22.546456</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3379,16 +3583,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D139">
-        <v>114.104315</v>
+        <v>113.97862</v>
       </c>
       <c r="E139">
-        <v>22.56203</v>
+        <v>22.523078</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3399,13 +3603,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D140">
-        <v>114.104749</v>
+        <v>114.036538</v>
       </c>
       <c r="E140">
-        <v>22.539943</v>
+        <v>22.664085</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3416,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D141">
-        <v>113.968432</v>
+        <v>114.040417</v>
       </c>
       <c r="E141">
-        <v>22.525142</v>
+        <v>22.672087</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3430,16 +3634,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D142">
-        <v>113.971433</v>
+        <v>114.125437</v>
       </c>
       <c r="E142">
-        <v>22.523023</v>
+        <v>22.544287</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3450,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D143">
-        <v>114.118666</v>
+        <v>113.938604</v>
       </c>
       <c r="E143">
-        <v>22.532083</v>
+        <v>22.493353</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3467,13 +3671,13 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D144">
-        <v>114.129883</v>
+        <v>113.83765</v>
       </c>
       <c r="E144">
-        <v>22.556188</v>
+        <v>22.774648</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3484,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="D145">
-        <v>113.893232</v>
+        <v>113.904158</v>
       </c>
       <c r="E145">
-        <v>22.55969</v>
+        <v>22.568964</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3498,16 +3702,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D146">
-        <v>114.116939</v>
+        <v>114.092561</v>
       </c>
       <c r="E146">
-        <v>22.544232</v>
+        <v>22.544541</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3518,13 +3722,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="D147">
-        <v>113.954311</v>
+        <v>114.234423</v>
       </c>
       <c r="E147">
-        <v>22.574138</v>
+        <v>22.697495</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3535,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="D148">
-        <v>114.1165</v>
+        <v>114.089254</v>
       </c>
       <c r="E148">
-        <v>22.584447</v>
+        <v>22.724608</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3552,13 +3756,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D149">
-        <v>113.913128</v>
+        <v>113.960559</v>
       </c>
       <c r="E149">
-        <v>22.511903</v>
+        <v>22.56827</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3569,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="D150">
-        <v>113.893485</v>
+        <v>114.105826</v>
       </c>
       <c r="E150">
-        <v>22.497821</v>
+        <v>22.647828</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3583,16 +3787,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="D151">
-        <v>114.22431</v>
+        <v>114.130052</v>
       </c>
       <c r="E151">
-        <v>22.673079</v>
+        <v>22.56728</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3603,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="D152">
-        <v>114.059402</v>
+        <v>113.943543</v>
       </c>
       <c r="E152">
-        <v>22.560538</v>
+        <v>22.580534</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3620,13 +3824,13 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D153">
-        <v>114.067829</v>
+        <v>113.937602</v>
       </c>
       <c r="E153">
-        <v>22.548646</v>
+        <v>22.509146</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3637,13 +3841,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="D154">
-        <v>114.050034</v>
+        <v>113.967048</v>
       </c>
       <c r="E154">
-        <v>22.546668</v>
+        <v>22.539604</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3654,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D155">
-        <v>113.912331</v>
+        <v>114.042431</v>
       </c>
       <c r="E155">
-        <v>22.476626</v>
+        <v>22.601505</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3668,16 +3872,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="D156">
-        <v>113.954396</v>
+        <v>114.13038</v>
       </c>
       <c r="E156">
-        <v>22.580677</v>
+        <v>22.595442</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3688,13 +3892,13 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="D157">
-        <v>113.965648</v>
+        <v>114.073972</v>
       </c>
       <c r="E157">
-        <v>22.593567</v>
+        <v>22.521799</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3705,13 +3909,13 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D158">
-        <v>113.863048</v>
+        <v>114.059823</v>
       </c>
       <c r="E158">
-        <v>22.575149</v>
+        <v>22.523138</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3719,16 +3923,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D159">
-        <v>114.054581</v>
+        <v>114.050987</v>
       </c>
       <c r="E159">
-        <v>22.534655</v>
+        <v>22.516287</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3739,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="D160">
-        <v>114.083598</v>
+        <v>114.246899</v>
       </c>
       <c r="E160">
-        <v>22.531374</v>
+        <v>22.562536</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3753,16 +3957,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="D161">
-        <v>113.897525</v>
+        <v>114.256321</v>
       </c>
       <c r="E161">
-        <v>22.479227</v>
+        <v>22.589721</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3770,16 +3974,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="D162">
-        <v>114.02583</v>
+        <v>114.053616</v>
       </c>
       <c r="E162">
-        <v>22.536247</v>
+        <v>22.523708</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3790,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D163">
-        <v>114.096273</v>
+        <v>113.819959</v>
       </c>
       <c r="E163">
-        <v>22.549126</v>
+        <v>22.784486</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3807,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="D164">
-        <v>113.889969</v>
+        <v>113.856093</v>
       </c>
       <c r="E164">
-        <v>22.502908</v>
+        <v>22.575073</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3824,13 +4028,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="D165">
-        <v>114.089784</v>
+        <v>114.055586</v>
       </c>
       <c r="E165">
-        <v>22.568344</v>
+        <v>22.507884</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3838,16 +4042,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="D166">
-        <v>114.010275</v>
+        <v>114.065915</v>
       </c>
       <c r="E166">
-        <v>22.599395</v>
+        <v>22.523226</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3858,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="D167">
-        <v>114.113825</v>
+        <v>113.806076</v>
       </c>
       <c r="E167">
-        <v>22.608053</v>
+        <v>22.673562</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3872,16 +4076,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="D168">
-        <v>114.039683</v>
+        <v>114.052879</v>
       </c>
       <c r="E168">
-        <v>22.545356</v>
+        <v>22.540087</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3889,16 +4093,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D169">
-        <v>114.032716</v>
+        <v>114.067321</v>
       </c>
       <c r="E169">
-        <v>22.55386</v>
+        <v>22.516887</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3909,13 +4113,13 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="D170">
-        <v>114.023851</v>
+        <v>114.121064</v>
       </c>
       <c r="E170">
-        <v>22.552772</v>
+        <v>22.686028</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3926,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D171">
-        <v>114.038637</v>
+        <v>113.934115</v>
       </c>
       <c r="E171">
-        <v>22.538887</v>
+        <v>22.777469</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3940,16 +4144,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="D172">
-        <v>113.817005</v>
+        <v>114.095173</v>
       </c>
       <c r="E172">
-        <v>22.716998</v>
+        <v>22.540618</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3960,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="D173">
-        <v>113.950079</v>
+        <v>113.946195</v>
       </c>
       <c r="E173">
-        <v>22.532797</v>
+        <v>22.527019</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3977,13 +4181,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D174">
-        <v>113.953842</v>
+        <v>114.013917</v>
       </c>
       <c r="E174">
-        <v>22.540236</v>
+        <v>22.533357</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3994,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D175">
-        <v>113.903079</v>
+        <v>114.040309</v>
       </c>
       <c r="E175">
-        <v>22.532005</v>
+        <v>22.686728</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4011,13 +4215,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D176">
-        <v>114.108625</v>
+        <v>114.111295</v>
       </c>
       <c r="E176">
-        <v>22.535708</v>
+        <v>22.563406</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4028,13 +4232,13 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="D177">
-        <v>114.08728</v>
+        <v>113.945531</v>
       </c>
       <c r="E177">
-        <v>22.555843</v>
+        <v>22.532695</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4045,13 +4249,13 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="D178">
-        <v>114.136332</v>
+        <v>114.023465</v>
       </c>
       <c r="E178">
-        <v>22.546095</v>
+        <v>22.621886</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4059,16 +4263,16 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="D179">
-        <v>113.974687</v>
+        <v>114.104584</v>
       </c>
       <c r="E179">
-        <v>22.56401</v>
+        <v>22.54838</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4076,16 +4280,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="D180">
-        <v>114.022419</v>
+        <v>114.104315</v>
       </c>
       <c r="E180">
-        <v>22.651629</v>
+        <v>22.56203</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4096,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D181">
-        <v>114.254592</v>
+        <v>114.104749</v>
       </c>
       <c r="E181">
-        <v>22.716915</v>
+        <v>22.539943</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4113,12 +4317,947 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>249</v>
+      </c>
+      <c r="D182">
+        <v>113.968432</v>
+      </c>
+      <c r="E182">
+        <v>22.525142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
         <v>186</v>
       </c>
-      <c r="D182">
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>278</v>
+      </c>
+      <c r="D183">
+        <v>113.971433</v>
+      </c>
+      <c r="E183">
+        <v>22.523023</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184">
+        <v>113.907292</v>
+      </c>
+      <c r="E184">
+        <v>22.777684</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>253</v>
+      </c>
+      <c r="D185">
+        <v>114.118666</v>
+      </c>
+      <c r="E185">
+        <v>22.532083</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>250</v>
+      </c>
+      <c r="D186">
+        <v>114.129883</v>
+      </c>
+      <c r="E186">
+        <v>22.556188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>242</v>
+      </c>
+      <c r="D187">
+        <v>114.068894</v>
+      </c>
+      <c r="E187">
+        <v>22.574179</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188">
+        <v>113.893232</v>
+      </c>
+      <c r="E188">
+        <v>22.55969</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>279</v>
+      </c>
+      <c r="D189">
+        <v>114.116939</v>
+      </c>
+      <c r="E189">
+        <v>22.544232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>241</v>
+      </c>
+      <c r="D190">
+        <v>114.041087</v>
+      </c>
+      <c r="E190">
+        <v>22.697256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>246</v>
+      </c>
+      <c r="D191">
+        <v>113.954311</v>
+      </c>
+      <c r="E191">
+        <v>22.574138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192">
+        <v>114.1165</v>
+      </c>
+      <c r="E192">
+        <v>22.584447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>247</v>
+      </c>
+      <c r="D193">
+        <v>113.913128</v>
+      </c>
+      <c r="E193">
+        <v>22.511903</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>245</v>
+      </c>
+      <c r="D194">
+        <v>113.893485</v>
+      </c>
+      <c r="E194">
+        <v>22.497821</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>250</v>
+      </c>
+      <c r="D195">
+        <v>114.22431</v>
+      </c>
+      <c r="E195">
+        <v>22.673079</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>249</v>
+      </c>
+      <c r="D196">
+        <v>114.174291</v>
+      </c>
+      <c r="E196">
+        <v>22.564118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>249</v>
+      </c>
+      <c r="D197">
+        <v>114.155585</v>
+      </c>
+      <c r="E197">
+        <v>22.553524</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198">
+        <v>114.059402</v>
+      </c>
+      <c r="E198">
+        <v>22.560538</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>280</v>
+      </c>
+      <c r="D199">
+        <v>114.067829</v>
+      </c>
+      <c r="E199">
+        <v>22.548646</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>249</v>
+      </c>
+      <c r="D200">
+        <v>114.050034</v>
+      </c>
+      <c r="E200">
+        <v>22.546668</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201">
+        <v>113.867694</v>
+      </c>
+      <c r="E201">
+        <v>22.780928</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>249</v>
+      </c>
+      <c r="D202">
+        <v>113.912331</v>
+      </c>
+      <c r="E202">
+        <v>22.476626</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>261</v>
+      </c>
+      <c r="D203">
+        <v>113.954396</v>
+      </c>
+      <c r="E203">
+        <v>22.580677</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>246</v>
+      </c>
+      <c r="D204">
+        <v>113.965648</v>
+      </c>
+      <c r="E204">
+        <v>22.593567</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>253</v>
+      </c>
+      <c r="D205">
+        <v>113.863048</v>
+      </c>
+      <c r="E205">
+        <v>22.575149</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>241</v>
+      </c>
+      <c r="D206">
+        <v>114.054771</v>
+      </c>
+      <c r="E206">
+        <v>22.715172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>241</v>
+      </c>
+      <c r="D207">
+        <v>114.076271</v>
+      </c>
+      <c r="E207">
+        <v>22.721616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>243</v>
+      </c>
+      <c r="D208">
+        <v>114.066366</v>
+      </c>
+      <c r="E208">
+        <v>22.641719</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D209">
+        <v>114.054581</v>
+      </c>
+      <c r="E209">
+        <v>22.534655</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>246</v>
+      </c>
+      <c r="D210">
+        <v>114.083598</v>
+      </c>
+      <c r="E210">
+        <v>22.531374</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>281</v>
+      </c>
+      <c r="D211">
+        <v>113.897525</v>
+      </c>
+      <c r="E211">
+        <v>22.479227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>282</v>
+      </c>
+      <c r="D212">
+        <v>114.02583</v>
+      </c>
+      <c r="E212">
+        <v>22.536247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>283</v>
+      </c>
+      <c r="D213">
+        <v>114.096273</v>
+      </c>
+      <c r="E213">
+        <v>22.549126</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>245</v>
+      </c>
+      <c r="D214">
+        <v>113.889969</v>
+      </c>
+      <c r="E214">
+        <v>22.502908</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>284</v>
+      </c>
+      <c r="D215">
+        <v>114.089851</v>
+      </c>
+      <c r="E215">
+        <v>22.568308</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>242</v>
+      </c>
+      <c r="D216">
+        <v>113.930926</v>
+      </c>
+      <c r="E216">
+        <v>22.726332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>245</v>
+      </c>
+      <c r="D217">
+        <v>114.010275</v>
+      </c>
+      <c r="E217">
+        <v>22.599395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>241</v>
+      </c>
+      <c r="D218">
+        <v>114.044796</v>
+      </c>
+      <c r="E218">
+        <v>22.710764</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>245</v>
+      </c>
+      <c r="D219">
+        <v>114.113825</v>
+      </c>
+      <c r="E219">
+        <v>22.608053</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>242</v>
+      </c>
+      <c r="D220">
+        <v>113.991785</v>
+      </c>
+      <c r="E220">
+        <v>22.668097</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>243</v>
+      </c>
+      <c r="D221">
+        <v>114.060309</v>
+      </c>
+      <c r="E221">
+        <v>22.604541</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>243</v>
+      </c>
+      <c r="D222">
+        <v>114.078964</v>
+      </c>
+      <c r="E222">
+        <v>22.656909</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>247</v>
+      </c>
+      <c r="D223">
+        <v>114.039683</v>
+      </c>
+      <c r="E223">
+        <v>22.545356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>249</v>
+      </c>
+      <c r="D224">
+        <v>114.032716</v>
+      </c>
+      <c r="E224">
+        <v>22.55386</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>249</v>
+      </c>
+      <c r="D225">
+        <v>114.023851</v>
+      </c>
+      <c r="E225">
+        <v>22.552772</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>253</v>
+      </c>
+      <c r="D226">
+        <v>114.038637</v>
+      </c>
+      <c r="E226">
+        <v>22.538887</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>259</v>
+      </c>
+      <c r="D227">
+        <v>113.817005</v>
+      </c>
+      <c r="E227">
+        <v>22.716998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>247</v>
+      </c>
+      <c r="D228">
+        <v>113.950079</v>
+      </c>
+      <c r="E228">
+        <v>22.532797</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>253</v>
+      </c>
+      <c r="D229">
+        <v>113.953842</v>
+      </c>
+      <c r="E229">
+        <v>22.540236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>253</v>
+      </c>
+      <c r="D230">
+        <v>113.903079</v>
+      </c>
+      <c r="E230">
+        <v>22.532005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>247</v>
+      </c>
+      <c r="D231">
+        <v>114.108625</v>
+      </c>
+      <c r="E231">
+        <v>22.535708</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>246</v>
+      </c>
+      <c r="D232">
+        <v>114.08728</v>
+      </c>
+      <c r="E232">
+        <v>22.555843</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>281</v>
+      </c>
+      <c r="D233">
+        <v>114.136332</v>
+      </c>
+      <c r="E233">
+        <v>22.546095</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>246</v>
+      </c>
+      <c r="D234">
+        <v>113.974687</v>
+      </c>
+      <c r="E234">
+        <v>22.56401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>241</v>
+      </c>
+      <c r="D235">
+        <v>114.022419</v>
+      </c>
+      <c r="E235">
+        <v>22.651629</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>250</v>
+      </c>
+      <c r="D236">
+        <v>114.254592</v>
+      </c>
+      <c r="E236">
+        <v>22.716915</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>241</v>
+      </c>
+      <c r="D237">
         <v>114.01201</v>
       </c>
-      <c r="E182">
+      <c r="E237">
         <v>22.644739</v>
       </c>
     </row>
